--- a/documentacao/marise_oficial.xlsx
+++ b/documentacao/marise_oficial.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\grupo9-ads\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Desktop\grupo9-ads\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF9BB26-C754-4AF4-93E3-791372070699}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -122,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,91 +268,91 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,578 +648,594 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="I1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="I2" s="9" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="23">
         <v>25</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="C3" s="23"/>
+      <c r="D3" s="3">
         <v>56</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7">
+        <v>25</v>
+      </c>
+      <c r="K3" s="7">
+        <v>20</v>
+      </c>
+      <c r="L3" s="7">
+        <v>70</v>
+      </c>
+      <c r="M3" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="23">
+        <v>26</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="3">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>70</v>
+      </c>
+      <c r="M4" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="23">
+        <v>27</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="3">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="11">
-        <v>20</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L5" s="7">
         <v>70</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M5" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="11">
-        <v>8</v>
-      </c>
-      <c r="K4" s="11">
-        <v>2</v>
-      </c>
-      <c r="L4" s="11">
-        <v>70</v>
-      </c>
-      <c r="M4" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
-        <v>89</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>-20</v>
-      </c>
-      <c r="L5" s="11">
-        <v>70</v>
-      </c>
-      <c r="M5" s="11">
-        <v>40</v>
-      </c>
-    </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="23">
         <v>28</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6">
+      <c r="C6" s="23"/>
+      <c r="D6" s="3">
         <v>91</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="12" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="I6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="23">
         <v>29</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
+      <c r="C7" s="23"/>
+      <c r="D7" s="3">
         <v>93</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="13" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="23">
         <v>30</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6">
+      <c r="C8" s="23"/>
+      <c r="D8" s="3">
         <v>94</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="I8" s="13">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="I8" s="8">
         <f>MIN(B3:C8)</f>
         <v>25</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="8">
         <f>QUARTILE(B3:C8,)</f>
         <v>25</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <f>AVERAGE(B3:C8)</f>
         <v>27.5</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <f>MEDIAN(B3:C8)</f>
         <v>27.5</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="8">
         <f>QUARTILE(B3:C8,3)</f>
         <v>28.75</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="9">
         <f>MAX(B3:C9)</f>
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="3">
         <v>70</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="I9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="I9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="I10" s="15" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="I10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="23">
         <f>(B3-5)</f>
         <v>20</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6">
+      <c r="C11" s="23"/>
+      <c r="D11" s="3">
         <f>(B3-23)</f>
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="I11" s="15">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="I11" s="10">
         <f>MIN(B11:C16)</f>
         <v>20</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="10">
         <f>QUARTILE(B11:C16,1)</f>
         <v>21.25</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="10">
         <f>AVERAGE(B11:C16)</f>
         <v>22.5</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="10">
         <f>MEDIAN(B11:C16)</f>
         <v>22.5</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="10">
         <f>QUARTILE(B11:C16,3)</f>
         <v>23.75</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="11">
         <f>MAX(B11:C16)</f>
         <v>25</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="23">
         <f t="shared" ref="B12:B16" si="0">(B4-5)</f>
         <v>21</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6">
+      <c r="C12" s="23"/>
+      <c r="D12" s="3">
         <f t="shared" ref="D12:D16" si="1">(B4-23)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="I12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="I12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="C13" s="23"/>
+      <c r="D13" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="I13" s="19" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="I13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
+      <c r="C14" s="23"/>
+      <c r="D14" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="I14" s="19">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="I14" s="12">
         <f>MIN(D11:D17)</f>
         <v>2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="12">
         <f>QUARTILE(D11:D17,1)</f>
         <v>3.5</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="12">
         <f>AVERAGE(D11:D17)</f>
         <v>5</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="12">
         <f>MEDIAN(D11:D17)</f>
         <v>5</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="12">
         <f>QUARTILE(D11:D17,3)</f>
         <v>6.5</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="13">
         <f>MAX(D11:D17)</f>
         <v>8</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6">
+      <c r="C15" s="23"/>
+      <c r="D15" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="I15" s="21" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="I15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6">
+      <c r="C16" s="23"/>
+      <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="I16" s="22" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="I16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="O16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="24">
+      <c r="D17" s="16">
         <v>8</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="14">
         <f>MIN(B19:B24)</f>
         <v>-20</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="14">
         <f>QUARTILE(B19:B24,1)</f>
         <v>-15</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="14">
         <f>AVERAGE(C19:C24)</f>
         <v>-10</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="14">
         <f>MEDIAN(C19:C24)</f>
         <v>-10</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="14">
         <f>QUARTILE(C19:C24,3)</f>
         <v>-5</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="15">
         <f>MAX(B19:B24)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <f t="shared" ref="B19:B23" si="2">SUM(((-20*B3)+60)/-5)-108</f>
         <v>-20</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <f>(B3*4)-120</f>
         <v>-20</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <f t="shared" si="2"/>
         <v>-16</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f t="shared" ref="C20:C24" si="3">(B4*4)-120</f>
         <v>-16</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f t="shared" si="3"/>
         <v>-12</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f t="shared" si="3"/>
         <v>-8</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <f>SUM(((-20*B8)+60)/-5)-108</f>
         <v>0</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I15:N15"/>
     <mergeCell ref="O10:Q11"/>
     <mergeCell ref="O13:Q14"/>
     <mergeCell ref="O16:Q17"/>
@@ -1220,25 +1243,9 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>